--- a/desktop-functional-tests/ContentTestingSheet/Content_testing_template.xlsx
+++ b/desktop-functional-tests/ContentTestingSheet/Content_testing_template.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_Factory\code-fix\desktop-functional-tests\ContentTestingSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="4500" windowWidth="14790" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="5865"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" r:id="rId1" sheetId="1"/>
-    <sheet name="Women" r:id="rId2" sheetId="6"/>
-    <sheet name="Men" r:id="rId3" sheetId="7"/>
+    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Women" sheetId="6" r:id="rId2"/>
+    <sheet name="Men" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
   <si>
     <t>Title</t>
   </si>
@@ -49,9 +45,6 @@
     <t>Top Nav Links Validation</t>
   </si>
   <si>
-    <t>https://www.jcrew.com/us/</t>
-  </si>
-  <si>
     <t>For Women</t>
   </si>
   <si>
@@ -562,23 +555,13 @@
     <t>https://hello.jcrew.com/2017-09-september/style-hacks-the-rugby-shirt?intcmp=w8_blog-stylehacks</t>
   </si>
   <si>
-    <t>https://or.jcrew.com/us/</t>
-  </si>
-  <si>
-    <t>https://or.jcrew.com/in/us/</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>https://or.jcrew.com/in/in/us/</t>
+    <t>https://www.jcrew.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,39 +650,39 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -712,7 +695,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -728,7 +711,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -736,7 +719,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -802,7 +785,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
@@ -810,7 +793,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -865,7 +848,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -881,7 +864,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -889,7 +872,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -955,7 +938,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif" id="3" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 1" descr="https://www.jcrew.com/media/assets/all/navigation/leftnav_arrow_v2_m56577569830805844.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
@@ -963,7 +946,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1022,10 +1005,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1060,7 +1043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1095,7 +1078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1189,21 +1172,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1220,7 +1203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1272,27 +1255,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="58.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,28 +1302,20 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1349,10 +1324,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1361,10 +1336,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1373,10 +1348,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1385,10 +1360,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1397,22 +1372,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row ht="30" r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1421,10 +1396,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1433,10 +1408,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1445,10 +1420,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1457,10 +1432,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1469,10 +1444,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1481,10 +1456,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1493,10 +1468,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1505,10 +1480,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1517,10 +1492,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1529,10 +1504,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1541,10 +1516,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1553,10 +1528,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1565,10 +1540,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1577,10 +1552,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1589,10 +1564,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1601,10 +1576,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1613,10 +1588,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1625,10 +1600,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1637,10 +1612,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1649,10 +1624,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1661,10 +1636,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1673,10 +1648,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1685,10 +1660,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1697,10 +1672,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1709,10 +1684,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1721,10 +1696,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1733,10 +1708,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1745,10 +1720,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1757,10 +1732,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1769,10 +1744,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1781,10 +1756,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1793,10 +1768,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1805,10 +1780,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1817,10 +1792,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1829,10 +1804,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1841,10 +1816,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1853,10 +1828,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1865,28 +1840,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://www.jcrew.com/mens_feature/NewArrivals.jsp?intcmp=home_na_m" r:id="rId1" ref="B3"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.jcrew.com/mens_feature/NewArrivals.jsp?intcmp=home_na_m"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,10 +1887,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1923,10 +1899,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1935,10 +1911,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1947,10 +1923,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1959,10 +1935,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1971,10 +1947,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1983,10 +1959,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1995,10 +1971,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2007,10 +1983,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2019,10 +1995,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2031,10 +2007,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2043,10 +2019,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2055,10 +2031,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2067,10 +2043,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2079,10 +2055,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2091,10 +2067,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2103,10 +2079,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2115,10 +2091,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2127,10 +2103,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2139,10 +2115,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2151,10 +2127,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2163,10 +2139,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2175,10 +2151,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2187,10 +2163,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2199,10 +2175,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2211,10 +2187,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2223,10 +2199,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2235,10 +2211,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2247,10 +2223,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2259,10 +2235,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2271,10 +2247,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2283,10 +2259,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2295,10 +2271,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2307,10 +2283,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2319,10 +2295,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2331,10 +2307,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2343,10 +2319,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2355,10 +2331,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2367,10 +2343,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2379,10 +2355,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2391,10 +2367,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2403,10 +2379,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2415,10 +2391,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2427,10 +2403,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2438,15 +2414,15 @@
       <c r="F45" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2454,11 +2430,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2834,8 +2810,8 @@
       <c r="F45" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>